--- a/data/period_1.xlsx
+++ b/data/period_1.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>plot_num</t>
+    <t>event id</t>
   </si>
   <si>
     <t>start index</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>urine volume</t>
+  </si>
+  <si>
+    <t>total volume</t>
   </si>
   <si>
     <t>duration</t>
@@ -444,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,13 +481,16 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -508,15 +514,18 @@
         <v>0.8369999999999999</v>
       </c>
       <c r="J2">
+        <v>9.909999999999995</v>
+      </c>
+      <c r="K2">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -540,15 +549,18 @@
         <v>0.2890000000000015</v>
       </c>
       <c r="J3">
+        <v>2.02199999999999</v>
+      </c>
+      <c r="K3">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -572,15 +584,18 @@
         <v>0.4289999999999961</v>
       </c>
       <c r="J4">
+        <v>2.128999999999997</v>
+      </c>
+      <c r="K4">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -604,15 +619,18 @@
         <v>1.032000000000001</v>
       </c>
       <c r="J5">
+        <v>6.872000000000008</v>
+      </c>
+      <c r="K5">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -636,15 +654,18 @@
         <v>0.118999999999998</v>
       </c>
       <c r="J6">
+        <v>0.9329999999999981</v>
+      </c>
+      <c r="K6">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -668,15 +689,18 @@
         <v>0.1510000000000007</v>
       </c>
       <c r="J7">
+        <v>0.6820000000000137</v>
+      </c>
+      <c r="K7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -700,15 +724,18 @@
         <v>0.1339999999999986</v>
       </c>
       <c r="J8">
+        <v>0.7570000000000174</v>
+      </c>
+      <c r="K8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -732,15 +759,18 @@
         <v>2.469000000000007</v>
       </c>
       <c r="J9">
+        <v>22.52299999999996</v>
+      </c>
+      <c r="K9">
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -764,15 +794,18 @@
         <v>0.1290000000000031</v>
       </c>
       <c r="J10">
+        <v>3.20900000000003</v>
+      </c>
+      <c r="K10">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -796,15 +829,18 @@
         <v>0.529000000000007</v>
       </c>
       <c r="J11">
+        <v>3.728000000000083</v>
+      </c>
+      <c r="K11">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -828,15 +864,18 @@
         <v>1.050000000000004</v>
       </c>
       <c r="J12">
+        <v>8.802999999999933</v>
+      </c>
+      <c r="K12">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -860,15 +899,18 @@
         <v>0.8699999999999903</v>
       </c>
       <c r="J13">
+        <v>6.847999999999921</v>
+      </c>
+      <c r="K13">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -892,15 +934,18 @@
         <v>0.618999999999998</v>
       </c>
       <c r="J14">
+        <v>6.089999999999888</v>
+      </c>
+      <c r="K14">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -924,15 +969,18 @@
         <v>0.729000000000001</v>
       </c>
       <c r="J15">
+        <v>6.452</v>
+      </c>
+      <c r="K15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -956,15 +1004,18 @@
         <v>0.3289999999999988</v>
       </c>
       <c r="J16">
+        <v>1.832000000000013</v>
+      </c>
+      <c r="K16">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -988,15 +1039,18 @@
         <v>0.2399999999999949</v>
       </c>
       <c r="J17">
+        <v>1.809999999999974</v>
+      </c>
+      <c r="K17">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1020,15 +1074,18 @@
         <v>1.018999999999979</v>
       </c>
       <c r="J18">
+        <v>11.38899999999984</v>
+      </c>
+      <c r="K18">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -1052,15 +1109,18 @@
         <v>8.169000000000013</v>
       </c>
       <c r="J19">
+        <v>48.81499999999998</v>
+      </c>
+      <c r="K19">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -1084,15 +1144,18 @@
         <v>0.6289999999999942</v>
       </c>
       <c r="J20">
+        <v>5.116999999999823</v>
+      </c>
+      <c r="K20">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -1116,15 +1179,18 @@
         <v>1.578999999999983</v>
       </c>
       <c r="J21">
+        <v>14.80500000000007</v>
+      </c>
+      <c r="K21">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1148,15 +1214,18 @@
         <v>0.1460000000000043</v>
       </c>
       <c r="J22">
+        <v>0.3919999999999852</v>
+      </c>
+      <c r="K22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -1180,15 +1249,18 @@
         <v>0.7959999999999923</v>
       </c>
       <c r="J23">
+        <v>8.003999999999877</v>
+      </c>
+      <c r="K23">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -1212,15 +1284,18 @@
         <v>0.1400000000000077</v>
       </c>
       <c r="J24">
+        <v>0.5800000000000054</v>
+      </c>
+      <c r="K24">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -1244,15 +1319,18 @@
         <v>4.068999999999971</v>
       </c>
       <c r="J25">
+        <v>24.69499999999986</v>
+      </c>
+      <c r="K25">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -1276,15 +1354,18 @@
         <v>0.9200000000000053</v>
       </c>
       <c r="J26">
+        <v>4.489999999999885</v>
+      </c>
+      <c r="K26">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1308,15 +1389,18 @@
         <v>1.258000000000038</v>
       </c>
       <c r="J27">
+        <v>8.571999999999946</v>
+      </c>
+      <c r="K27">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -1340,15 +1424,18 @@
         <v>2.968999999999994</v>
       </c>
       <c r="J28">
+        <v>14.21299999999999</v>
+      </c>
+      <c r="K28">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -1372,15 +1459,18 @@
         <v>0.5910000000000153</v>
       </c>
       <c r="J29">
+        <v>3.599000000000281</v>
+      </c>
+      <c r="K29">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -1404,15 +1494,18 @@
         <v>0.3479999999999634</v>
       </c>
       <c r="J30">
+        <v>1.30199999999946</v>
+      </c>
+      <c r="K30">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -1436,15 +1529,18 @@
         <v>0.5180000000000007</v>
       </c>
       <c r="J31">
+        <v>1.823999999999842</v>
+      </c>
+      <c r="K31">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1468,15 +1564,18 @@
         <v>0.14</v>
       </c>
       <c r="J32">
+        <v>1.707000000000002</v>
+      </c>
+      <c r="K32">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1500,15 +1599,18 @@
         <v>0.08699999999999974</v>
       </c>
       <c r="J33">
+        <v>2.819000000000004</v>
+      </c>
+      <c r="K33">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1532,15 +1634,18 @@
         <v>1.578999999999994</v>
       </c>
       <c r="J34">
+        <v>14.76100000000002</v>
+      </c>
+      <c r="K34">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1564,15 +1669,18 @@
         <v>0.1370000000000005</v>
       </c>
       <c r="J35">
+        <v>1.055000000000007</v>
+      </c>
+      <c r="K35">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1596,15 +1704,18 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="J36">
+        <v>1.350000000000001</v>
+      </c>
+      <c r="K36">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1628,15 +1739,18 @@
         <v>0.630000000000003</v>
       </c>
       <c r="J37">
+        <v>10.10500000000004</v>
+      </c>
+      <c r="K37">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1660,15 +1774,18 @@
         <v>1.941000000000006</v>
       </c>
       <c r="J38">
+        <v>14.65100000000004</v>
+      </c>
+      <c r="K38">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -1692,15 +1809,18 @@
         <v>0.4390000000000063</v>
       </c>
       <c r="J39">
+        <v>2.33900000000004</v>
+      </c>
+      <c r="K39">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -1724,15 +1844,18 @@
         <v>0.728999999999993</v>
       </c>
       <c r="J40">
+        <v>6.439000000000029</v>
+      </c>
+      <c r="K40">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -1756,15 +1879,18 @@
         <v>0.3190000000000071</v>
       </c>
       <c r="J41">
+        <v>2.475999999999968</v>
+      </c>
+      <c r="K41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -1788,15 +1914,18 @@
         <v>0.5190000000000028</v>
       </c>
       <c r="J42">
+        <v>5.235999999999959</v>
+      </c>
+      <c r="K42">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -1820,15 +1949,18 @@
         <v>0.3250000000000028</v>
       </c>
       <c r="J43">
+        <v>1.194999999999965</v>
+      </c>
+      <c r="K43">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>12</v>
@@ -1852,15 +1984,18 @@
         <v>0.0290000000000008</v>
       </c>
       <c r="J44">
+        <v>0.2179999999999653</v>
+      </c>
+      <c r="K44">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -1884,15 +2019,18 @@
         <v>0.5890000000000022</v>
       </c>
       <c r="J45">
+        <v>4.747000000000074</v>
+      </c>
+      <c r="K45">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>14</v>
@@ -1916,15 +2054,18 @@
         <v>0.3890000000000011</v>
       </c>
       <c r="J46">
+        <v>6.248999999999958</v>
+      </c>
+      <c r="K46">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -1948,15 +2089,18 @@
         <v>0.03999999999999559</v>
       </c>
       <c r="J47">
+        <v>0.3439999999999692</v>
+      </c>
+      <c r="K47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>16</v>
@@ -1980,15 +2124,18 @@
         <v>0</v>
       </c>
       <c r="J48">
+        <v>0.3380000000000223</v>
+      </c>
+      <c r="K48">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -2012,15 +2159,18 @@
         <v>0.4889999999999866</v>
       </c>
       <c r="J49">
+        <v>5.687000000000051</v>
+      </c>
+      <c r="K49">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>18</v>
@@ -2044,15 +2194,18 @@
         <v>0.2489999999999988</v>
       </c>
       <c r="J50">
+        <v>4.114999999999984</v>
+      </c>
+      <c r="K50">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>19</v>
@@ -2076,15 +2229,18 @@
         <v>0.4230000000000071</v>
       </c>
       <c r="J51">
+        <v>2.122999999999967</v>
+      </c>
+      <c r="K51">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -2108,15 +2264,18 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="J52">
+        <v>2.559999999999917</v>
+      </c>
+      <c r="K52">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -2140,15 +2299,18 @@
         <v>0.1589999999999989</v>
       </c>
       <c r="J53">
+        <v>0.9429999999998202</v>
+      </c>
+      <c r="K53">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>22</v>
@@ -2172,15 +2334,18 @@
         <v>0.3419999999999952</v>
       </c>
       <c r="J54">
+        <v>1.672000000000008</v>
+      </c>
+      <c r="K54">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>23</v>
@@ -2204,15 +2369,18 @@
         <v>0.679000000000002</v>
       </c>
       <c r="J55">
+        <v>5.992999999999853</v>
+      </c>
+      <c r="K55">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>24</v>
@@ -2236,15 +2404,18 @@
         <v>-0.05500000000000682</v>
       </c>
       <c r="J56">
+        <v>0.4570000000000505</v>
+      </c>
+      <c r="K56">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2268,15 +2439,18 @@
         <v>0.6190000000000002</v>
       </c>
       <c r="J57">
+        <v>9.496999999999998</v>
+      </c>
+      <c r="K57">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2300,15 +2474,18 @@
         <v>2.689000000000001</v>
       </c>
       <c r="J58">
+        <v>13.916</v>
+      </c>
+      <c r="K58">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2332,15 +2509,18 @@
         <v>0.8089999999999966</v>
       </c>
       <c r="J59">
+        <v>7.063999999999935</v>
+      </c>
+      <c r="K59">
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2364,15 +2544,18 @@
         <v>0.2709999999999999</v>
       </c>
       <c r="J60">
+        <v>1.797000000000003</v>
+      </c>
+      <c r="K60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2396,15 +2579,18 @@
         <v>0.539000000000005</v>
       </c>
       <c r="J61">
+        <v>5.347999999999999</v>
+      </c>
+      <c r="K61">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -2428,15 +2614,18 @@
         <v>0.3769999999999989</v>
       </c>
       <c r="J62">
+        <v>0.3769999999999989</v>
+      </c>
+      <c r="K62">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -2460,15 +2649,18 @@
         <v>0.3719999999999892</v>
       </c>
       <c r="J63">
+        <v>4.406000000000009</v>
+      </c>
+      <c r="K63">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -2492,15 +2684,18 @@
         <v>1.259000000000004</v>
       </c>
       <c r="J64">
+        <v>16.94600000000002</v>
+      </c>
+      <c r="K64">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -2524,15 +2719,18 @@
         <v>0.5889999999999933</v>
       </c>
       <c r="J65">
+        <v>3.914999999999944</v>
+      </c>
+      <c r="K65">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -2556,15 +2754,18 @@
         <v>1.333000000000002</v>
       </c>
       <c r="J66">
+        <v>6.931000000000001</v>
+      </c>
+      <c r="K66">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -2588,15 +2789,18 @@
         <v>0.008999999999991459</v>
       </c>
       <c r="J67">
+        <v>0.40100000000003</v>
+      </c>
+      <c r="K67">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -2620,15 +2824,18 @@
         <v>0.5969999999999924</v>
       </c>
       <c r="J68">
+        <v>2.845000000000011</v>
+      </c>
+      <c r="K68">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -2652,15 +2859,18 @@
         <v>0.459000000000005</v>
       </c>
       <c r="J69">
+        <v>2.529000000000126</v>
+      </c>
+      <c r="K69">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>13</v>
@@ -2684,15 +2894,18 @@
         <v>0.5190000000000055</v>
       </c>
       <c r="J70">
+        <v>2.112999999999971</v>
+      </c>
+      <c r="K70">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>14</v>
@@ -2716,15 +2929,18 @@
         <v>0.1229999999999709</v>
       </c>
       <c r="J71">
+        <v>2.105000000000027</v>
+      </c>
+      <c r="K71">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>15</v>
@@ -2748,15 +2964,18 @@
         <v>0.04900000000001192</v>
       </c>
       <c r="J72">
+        <v>0.6009999999998623</v>
+      </c>
+      <c r="K72">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>16</v>
@@ -2780,15 +2999,18 @@
         <v>0.2189999999999994</v>
       </c>
       <c r="J73">
+        <v>1.85699999999982</v>
+      </c>
+      <c r="K73">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>17</v>
@@ -2812,15 +3034,18 @@
         <v>0.05899999999999217</v>
       </c>
       <c r="J74">
+        <v>0.9430000000001062</v>
+      </c>
+      <c r="K74">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>18</v>
@@ -2844,15 +3069,18 @@
         <v>0.4369999999999958</v>
       </c>
       <c r="J75">
+        <v>2.989000000000003</v>
+      </c>
+      <c r="K75">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>19</v>
@@ -2876,15 +3104,18 @@
         <v>0.5589999999999975</v>
       </c>
       <c r="J76">
+        <v>6.636999999999929</v>
+      </c>
+      <c r="K76">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>20</v>
@@ -2908,15 +3139,18 @@
         <v>0.6199999999999939</v>
       </c>
       <c r="J77">
+        <v>4.692000000000068</v>
+      </c>
+      <c r="K77">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>21</v>
@@ -2940,15 +3174,18 @@
         <v>1.058999999999996</v>
       </c>
       <c r="J78">
+        <v>10.93300000000005</v>
+      </c>
+      <c r="K78">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>22</v>
@@ -2972,15 +3209,18 @@
         <v>0.2490000000000059</v>
       </c>
       <c r="J79">
+        <v>1.872999999999944</v>
+      </c>
+      <c r="K79">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3004,15 +3244,18 @@
         <v>0.09000000000000341</v>
       </c>
       <c r="J80">
+        <v>0.7410000000000849</v>
+      </c>
+      <c r="K80">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3036,15 +3279,18 @@
         <v>0.05899999999999395</v>
       </c>
       <c r="J81">
+        <v>1.037000000000017</v>
+      </c>
+      <c r="K81">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -3068,15 +3314,18 @@
         <v>0.1189999999999927</v>
       </c>
       <c r="J82">
+        <v>1.283999999999963</v>
+      </c>
+      <c r="K82">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -3100,15 +3349,18 @@
         <v>0.6690000000000014</v>
       </c>
       <c r="J83">
+        <v>4.972999999999961</v>
+      </c>
+      <c r="K83">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -3132,15 +3384,18 @@
         <v>0.1160000000000059</v>
       </c>
       <c r="J84">
+        <v>1.711999999999946</v>
+      </c>
+      <c r="K84">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -3164,15 +3419,18 @@
         <v>1.678999999999995</v>
       </c>
       <c r="J85">
+        <v>18.23499999999988</v>
+      </c>
+      <c r="K85">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -3196,15 +3454,18 @@
         <v>0.5489999999999942</v>
       </c>
       <c r="J86">
+        <v>7.282999999999989</v>
+      </c>
+      <c r="K86">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:11">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87">
         <v>7</v>
@@ -3228,15 +3489,18 @@
         <v>0.2410000000000032</v>
       </c>
       <c r="J87">
+        <v>1.185000000000034</v>
+      </c>
+      <c r="K87">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88">
         <v>8</v>
@@ -3260,15 +3524,18 @@
         <v>0.1189999999999944</v>
       </c>
       <c r="J88">
+        <v>0.6110000000000273</v>
+      </c>
+      <c r="K88">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:11">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -3292,15 +3559,18 @@
         <v>0.3499999999999961</v>
       </c>
       <c r="J89">
+        <v>4.481999999999973</v>
+      </c>
+      <c r="K89">
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:11">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -3324,15 +3594,18 @@
         <v>0.0270000000000028</v>
       </c>
       <c r="J90">
+        <v>0.3169999999999806</v>
+      </c>
+      <c r="K90">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:11">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91">
         <v>11</v>
@@ -3356,15 +3629,18 @@
         <v>0.4859999999999989</v>
       </c>
       <c r="J91">
+        <v>6.767999999999981</v>
+      </c>
+      <c r="K91">
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3388,15 +3664,18 @@
         <v>0.2299999999999915</v>
       </c>
       <c r="J92">
+        <v>0.8400000000000762</v>
+      </c>
+      <c r="K92">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -3420,15 +3699,18 @@
         <v>4.879000000000016</v>
       </c>
       <c r="J93">
+        <v>32.19899999999987</v>
+      </c>
+      <c r="K93">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>14</v>
@@ -3452,15 +3734,18 @@
         <v>0.0389999999999624</v>
       </c>
       <c r="J94">
+        <v>0.6289999999999658</v>
+      </c>
+      <c r="K94">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>15</v>
@@ -3484,15 +3769,18 @@
         <v>0.7089999999999677</v>
       </c>
       <c r="J95">
+        <v>6.157000000000032</v>
+      </c>
+      <c r="K95">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:11">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>16</v>
@@ -3516,15 +3804,18 @@
         <v>0.3949999999999889</v>
       </c>
       <c r="J96">
+        <v>2.316999999999872</v>
+      </c>
+      <c r="K96">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>17</v>
@@ -3548,15 +3839,18 @@
         <v>0.7189999999999657</v>
       </c>
       <c r="J97">
+        <v>9.52699999999993</v>
+      </c>
+      <c r="K97">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:11">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3580,15 +3874,18 @@
         <v>1.360000000000001</v>
       </c>
       <c r="J98">
+        <v>14.23499999999998</v>
+      </c>
+      <c r="K98">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:11">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3612,15 +3909,18 @@
         <v>0.5590000000000015</v>
       </c>
       <c r="J99">
+        <v>3.027999999999987</v>
+      </c>
+      <c r="K99">
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:11">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -3644,15 +3944,18 @@
         <v>0.1680000000000001</v>
       </c>
       <c r="J100">
+        <v>0.6970000000000143</v>
+      </c>
+      <c r="K100">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -3676,15 +3979,18 @@
         <v>0.5689999999999964</v>
       </c>
       <c r="J101">
+        <v>1.780999999999996</v>
+      </c>
+      <c r="K101">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:11">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -3708,15 +4014,18 @@
         <v>0.2820000000000045</v>
       </c>
       <c r="J102">
+        <v>2.645000000000015</v>
+      </c>
+      <c r="K102">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:11">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -3740,15 +4049,18 @@
         <v>1.019000000000001</v>
       </c>
       <c r="J103">
+        <v>12.377</v>
+      </c>
+      <c r="K103">
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:11">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104">
         <v>6</v>
@@ -3772,15 +4084,18 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="J104">
+        <v>3.882999999999988</v>
+      </c>
+      <c r="K104">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:11">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -3804,15 +4119,18 @@
         <v>0.3860000000000001</v>
       </c>
       <c r="J105">
+        <v>3.108999999999999</v>
+      </c>
+      <c r="K105">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:11">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -3836,15 +4154,18 @@
         <v>1.839000000000005</v>
       </c>
       <c r="J106">
+        <v>12.85899999999999</v>
+      </c>
+      <c r="K106">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:11">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -3868,15 +4189,18 @@
         <v>0.239000000000007</v>
       </c>
       <c r="J107">
+        <v>1.867999999999976</v>
+      </c>
+      <c r="K107">
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -3900,15 +4224,18 @@
         <v>0.3820000000000041</v>
       </c>
       <c r="J108">
+        <v>1.544999999999994</v>
+      </c>
+      <c r="K108">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:11">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109">
         <v>11</v>
@@ -3932,15 +4259,18 @@
         <v>0.7389999999999972</v>
       </c>
       <c r="J109">
+        <v>5.161999999999942</v>
+      </c>
+      <c r="K109">
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:11">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3964,15 +4294,18 @@
         <v>6.925000000000003</v>
       </c>
       <c r="J110">
+        <v>42.41200000000001</v>
+      </c>
+      <c r="K110">
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3996,15 +4329,18 @@
         <v>1.719000000000002</v>
       </c>
       <c r="J111">
+        <v>12.35999999999999</v>
+      </c>
+      <c r="K111">
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:11">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -4028,15 +4364,18 @@
         <v>1.558999999999985</v>
       </c>
       <c r="J112">
+        <v>14.61600000000004</v>
+      </c>
+      <c r="K112">
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:11">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -4060,15 +4399,18 @@
         <v>0.08900000000000219</v>
       </c>
       <c r="J113">
+        <v>0.5279999999999667</v>
+      </c>
+      <c r="K113">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:11">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -4092,15 +4434,18 @@
         <v>0.2190000000000012</v>
       </c>
       <c r="J114">
+        <v>1.389999999999958</v>
+      </c>
+      <c r="K114">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:11">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -4124,15 +4469,18 @@
         <v>1.324999999999999</v>
       </c>
       <c r="J115">
+        <v>10.43200000000003</v>
+      </c>
+      <c r="K115">
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:11">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4156,15 +4504,18 @@
         <v>0.1189999999999996</v>
       </c>
       <c r="J116">
+        <v>0.6659999999999993</v>
+      </c>
+      <c r="K116">
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:11">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -4188,15 +4539,18 @@
         <v>0.03799999999999998</v>
       </c>
       <c r="J117">
+        <v>0.2110000000000002</v>
+      </c>
+      <c r="K117">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:11">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -4220,15 +4574,18 @@
         <v>1.04</v>
       </c>
       <c r="J118">
+        <v>12.34000000000001</v>
+      </c>
+      <c r="K118">
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:11">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -4252,15 +4609,18 @@
         <v>0.03900000000000281</v>
       </c>
       <c r="J119">
+        <v>0.3859999999999935</v>
+      </c>
+      <c r="K119">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:11">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -4284,15 +4644,18 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="J120">
+        <v>0.8130000000000113</v>
+      </c>
+      <c r="K120">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:11">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -4316,15 +4679,18 @@
         <v>5.454999999999998</v>
       </c>
       <c r="J121">
+        <v>39.89100000000003</v>
+      </c>
+      <c r="K121">
         <v>338</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:11">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -4348,15 +4714,18 @@
         <v>0.4140000000000015</v>
       </c>
       <c r="J122">
+        <v>2.300999999999966</v>
+      </c>
+      <c r="K122">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:11">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C123">
         <v>7</v>
@@ -4380,15 +4749,18 @@
         <v>0.2319999999999958</v>
       </c>
       <c r="J123">
+        <v>1.64099999999998</v>
+      </c>
+      <c r="K123">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:11">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -4412,15 +4784,18 @@
         <v>0.1790000000000003</v>
       </c>
       <c r="J124">
+        <v>2.230999999999943</v>
+      </c>
+      <c r="K124">
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -4444,15 +4819,18 @@
         <v>0.5099999999999891</v>
       </c>
       <c r="J125">
+        <v>2.704999999999968</v>
+      </c>
+      <c r="K125">
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:11">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>10</v>
@@ -4476,15 +4854,18 @@
         <v>0.3730000000000011</v>
       </c>
       <c r="J126">
+        <v>2.567999999999973</v>
+      </c>
+      <c r="K126">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:11">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4508,15 +4889,18 @@
         <v>1.648999999999999</v>
       </c>
       <c r="J127">
+        <v>16.245</v>
+      </c>
+      <c r="K127">
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:11">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4540,15 +4924,18 @@
         <v>0.2489999999999999</v>
       </c>
       <c r="J128">
+        <v>1.710000000000013</v>
+      </c>
+      <c r="K128">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -4572,15 +4959,18 @@
         <v>0.2669999999999986</v>
       </c>
       <c r="J129">
+        <v>2.133000000000023</v>
+      </c>
+      <c r="K129">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -4604,15 +4994,18 @@
         <v>0.347</v>
       </c>
       <c r="J130">
+        <v>2.204999999999983</v>
+      </c>
+      <c r="K130">
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -4636,15 +5029,18 @@
         <v>0.819999999999995</v>
       </c>
       <c r="J131">
+        <v>8.954999999999968</v>
+      </c>
+      <c r="K131">
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -4668,15 +5064,18 @@
         <v>0.2889999999999997</v>
       </c>
       <c r="J132">
+        <v>2.007999999999955</v>
+      </c>
+      <c r="K132">
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>6</v>
@@ -4700,15 +5099,18 @@
         <v>0.7819999999999983</v>
       </c>
       <c r="J133">
+        <v>3.116000000000001</v>
+      </c>
+      <c r="K133">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>7</v>
@@ -4732,15 +5134,18 @@
         <v>0.3009999999999957</v>
       </c>
       <c r="J134">
+        <v>2.272999999999976</v>
+      </c>
+      <c r="K134">
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -4764,15 +5169,18 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="J135">
+        <v>0.7319999999999851</v>
+      </c>
+      <c r="K135">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C136">
         <v>9</v>
@@ -4796,15 +5204,18 @@
         <v>0.5189999999999966</v>
       </c>
       <c r="J136">
+        <v>2.460999999999975</v>
+      </c>
+      <c r="K136">
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C137">
         <v>10</v>
@@ -4828,15 +5239,18 @@
         <v>0.1500000000000012</v>
       </c>
       <c r="J137">
+        <v>0.8609999999999927</v>
+      </c>
+      <c r="K137">
         <v>97</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138">
         <v>11</v>
@@ -4860,15 +5274,18 @@
         <v>0.308999999999978</v>
       </c>
       <c r="J138">
+        <v>3.480999999999947</v>
+      </c>
+      <c r="K138">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4892,15 +5309,18 @@
         <v>1.028000000000001</v>
       </c>
       <c r="J139">
+        <v>8.327000000000002</v>
+      </c>
+      <c r="K139">
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4924,15 +5344,18 @@
         <v>0.1440000000000001</v>
       </c>
       <c r="J140">
+        <v>1.656000000000003</v>
+      </c>
+      <c r="K140">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -4956,15 +5379,18 @@
         <v>0.1150000000000009</v>
       </c>
       <c r="J141">
+        <v>2.299</v>
+      </c>
+      <c r="K141">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -4988,15 +5414,18 @@
         <v>1.008999999999997</v>
       </c>
       <c r="J142">
+        <v>9.588999999999988</v>
+      </c>
+      <c r="K142">
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -5020,15 +5449,18 @@
         <v>0.3250000000000011</v>
       </c>
       <c r="J143">
+        <v>3.381000000000013</v>
+      </c>
+      <c r="K143">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -5052,15 +5484,18 @@
         <v>0.288999999999997</v>
       </c>
       <c r="J144">
+        <v>2.225999999999991</v>
+      </c>
+      <c r="K144">
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C145">
         <v>6</v>
@@ -5084,15 +5519,18 @@
         <v>0.6750000000000012</v>
       </c>
       <c r="J145">
+        <v>6.767000000000007</v>
+      </c>
+      <c r="K145">
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C146">
         <v>7</v>
@@ -5116,15 +5554,18 @@
         <v>1.349000000000006</v>
       </c>
       <c r="J146">
+        <v>10.28100000000002</v>
+      </c>
+      <c r="K146">
         <v>231</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -5148,15 +5589,18 @@
         <v>0.619000000000006</v>
       </c>
       <c r="J147">
+        <v>4.616999999999989</v>
+      </c>
+      <c r="K147">
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -5180,15 +5624,18 @@
         <v>0.6369999999999987</v>
       </c>
       <c r="J148">
+        <v>8.463999999999976</v>
+      </c>
+      <c r="K148">
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C149">
         <v>10</v>
@@ -5212,15 +5659,18 @@
         <v>0.2189999999999985</v>
       </c>
       <c r="J149">
+        <v>1.984999999999997</v>
+      </c>
+      <c r="K149">
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C150">
         <v>11</v>
@@ -5244,15 +5694,18 @@
         <v>0.08700000000000152</v>
       </c>
       <c r="J150">
+        <v>0.792999999999962</v>
+      </c>
+      <c r="K150">
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:11">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C151">
         <v>12</v>
@@ -5276,15 +5729,18 @@
         <v>0</v>
       </c>
       <c r="J151">
+        <v>0.211000000000034</v>
+      </c>
+      <c r="K151">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:11">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C152">
         <v>13</v>
@@ -5308,15 +5764,18 @@
         <v>0.4890000000000034</v>
       </c>
       <c r="J152">
+        <v>5.082999999999941</v>
+      </c>
+      <c r="K152">
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:11">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C153">
         <v>14</v>
@@ -5340,15 +5799,18 @@
         <v>0.5280000000000014</v>
       </c>
       <c r="J153">
+        <v>5.290000000000016</v>
+      </c>
+      <c r="K153">
         <v>86</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:11">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C154">
         <v>15</v>
@@ -5372,15 +5834,18 @@
         <v>0.4079999999999959</v>
       </c>
       <c r="J154">
+        <v>2.872999999999999</v>
+      </c>
+      <c r="K154">
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:11">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C155">
         <v>16</v>
@@ -5404,15 +5869,18 @@
         <v>0.7989999999999906</v>
       </c>
       <c r="J155">
+        <v>7.662000000000019</v>
+      </c>
+      <c r="K155">
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:11">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156">
         <v>17</v>
@@ -5436,15 +5904,18 @@
         <v>1.448999999999998</v>
       </c>
       <c r="J156">
+        <v>8.41100000000003</v>
+      </c>
+      <c r="K156">
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:11">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -5468,15 +5939,18 @@
         <v>1.328999999999985</v>
       </c>
       <c r="J157">
+        <v>9.308999999999903</v>
+      </c>
+      <c r="K157">
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:11">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C158">
         <v>19</v>
@@ -5500,15 +5974,18 @@
         <v>0.0590000000000046</v>
       </c>
       <c r="J158">
+        <v>0.8949999999999605</v>
+      </c>
+      <c r="K158">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:11">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C159">
         <v>20</v>
@@ -5532,15 +6009,18 @@
         <v>0.8969999999999825</v>
       </c>
       <c r="J159">
+        <v>5.786999999999926</v>
+      </c>
+      <c r="K159">
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:11">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C160">
         <v>21</v>
@@ -5564,15 +6044,18 @@
         <v>2.668999999999999</v>
       </c>
       <c r="J160">
+        <v>16.027</v>
+      </c>
+      <c r="K160">
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C161">
         <v>22</v>
@@ -5596,15 +6079,18 @@
         <v>0.6190000000000087</v>
       </c>
       <c r="J161">
+        <v>4.827000000000092</v>
+      </c>
+      <c r="K161">
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C162">
         <v>23</v>
@@ -5628,15 +6114,18 @@
         <v>0.07700000000000884</v>
       </c>
       <c r="J162">
+        <v>0.5389999999999553</v>
+      </c>
+      <c r="K162">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C163">
         <v>24</v>
@@ -5660,15 +6149,18 @@
         <v>0.5889999999999986</v>
       </c>
       <c r="J163">
+        <v>4.91300000000011</v>
+      </c>
+      <c r="K163">
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C164">
         <v>25</v>
@@ -5692,15 +6184,18 @@
         <v>0.2839999999999954</v>
       </c>
       <c r="J164">
+        <v>0.9359999999999964</v>
+      </c>
+      <c r="K164">
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -5724,15 +6219,18 @@
         <v>1.109</v>
       </c>
       <c r="J165">
+        <v>7.905000000000001</v>
+      </c>
+      <c r="K165">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -5756,15 +6254,18 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="J166">
+        <v>0.4539999999999935</v>
+      </c>
+      <c r="K166">
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -5788,15 +6289,18 @@
         <v>0.2489999999999992</v>
       </c>
       <c r="J167">
+        <v>2.113999999999999</v>
+      </c>
+      <c r="K167">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:11">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -5820,15 +6324,18 @@
         <v>0.05900000000000039</v>
       </c>
       <c r="J168">
+        <v>0.5060000000000031</v>
+      </c>
+      <c r="K168">
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:11">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C169">
         <v>4</v>
@@ -5852,15 +6359,18 @@
         <v>0.4189999999999987</v>
       </c>
       <c r="J169">
+        <v>2.584999999999988</v>
+      </c>
+      <c r="K169">
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:11">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -5884,15 +6394,18 @@
         <v>0.8570000000000004</v>
       </c>
       <c r="J170">
+        <v>5.892999999999993</v>
+      </c>
+      <c r="K170">
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:11">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -5916,15 +6429,18 @@
         <v>1.438999999999998</v>
       </c>
       <c r="J171">
+        <v>10.482</v>
+      </c>
+      <c r="K171">
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:11">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C172">
         <v>7</v>
@@ -5948,15 +6464,18 @@
         <v>0.6390000000000029</v>
       </c>
       <c r="J172">
+        <v>7.535</v>
+      </c>
+      <c r="K172">
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:11">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -5980,15 +6499,18 @@
         <v>0.3090000000000108</v>
       </c>
       <c r="J173">
+        <v>2.022000000000005</v>
+      </c>
+      <c r="K173">
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:11">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C174">
         <v>9</v>
@@ -6012,15 +6534,18 @@
         <v>0.2790000000000008</v>
       </c>
       <c r="J174">
+        <v>1.533000000000013</v>
+      </c>
+      <c r="K174">
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:11">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C175">
         <v>10</v>
@@ -6044,15 +6569,18 @@
         <v>0.5579999999999972</v>
       </c>
       <c r="J175">
+        <v>5.255000000000021</v>
+      </c>
+      <c r="K175">
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:11">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C176">
         <v>11</v>
@@ -6076,15 +6604,18 @@
         <v>0.3500000000000085</v>
       </c>
       <c r="J176">
+        <v>1.833999999999996</v>
+      </c>
+      <c r="K176">
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:11">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C177">
         <v>12</v>
@@ -6108,15 +6639,18 @@
         <v>0.5790000000000006</v>
       </c>
       <c r="J177">
+        <v>3.932999999999986</v>
+      </c>
+      <c r="K177">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:11">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C178">
         <v>13</v>
@@ -6140,15 +6674,18 @@
         <v>2.304000000000007</v>
       </c>
       <c r="J178">
+        <v>20.76999999999997</v>
+      </c>
+      <c r="K178">
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:11">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C179">
         <v>14</v>
@@ -6172,15 +6709,18 @@
         <v>0.748999999999997</v>
       </c>
       <c r="J179">
+        <v>8.79699999999997</v>
+      </c>
+      <c r="K179">
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:11">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -6204,15 +6744,18 @@
         <v>4.288999999999964</v>
       </c>
       <c r="J180">
+        <v>28.47699999999983</v>
+      </c>
+      <c r="K180">
         <v>328</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:11">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C181">
         <v>16</v>
@@ -6236,15 +6779,18 @@
         <v>1.722999999999992</v>
       </c>
       <c r="J181">
+        <v>5.004999999999832</v>
+      </c>
+      <c r="K181">
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:11">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C182">
         <v>17</v>
@@ -6268,15 +6814,18 @@
         <v>1.028999999999947</v>
       </c>
       <c r="J182">
+        <v>10.38899999999976</v>
+      </c>
+      <c r="K182">
         <v>173</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:11">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C183">
         <v>18</v>
@@ -6300,15 +6849,18 @@
         <v>0.5539999999999985</v>
       </c>
       <c r="J183">
+        <v>6.118000000000006</v>
+      </c>
+      <c r="K183">
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:11">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C184">
         <v>19</v>
@@ -6332,15 +6884,18 @@
         <v>0.3690000000000104</v>
       </c>
       <c r="J184">
+        <v>4.021000000000054</v>
+      </c>
+      <c r="K184">
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:11">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C185">
         <v>20</v>
@@ -6364,15 +6919,18 @@
         <v>0.4890000000000114</v>
       </c>
       <c r="J185">
+        <v>4.578999999999944</v>
+      </c>
+      <c r="K185">
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:11">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C186">
         <v>21</v>
@@ -6396,15 +6954,18 @@
         <v>0.04899999999999949</v>
       </c>
       <c r="J186">
+        <v>0.6569999999998899</v>
+      </c>
+      <c r="K186">
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:11">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C187">
         <v>22</v>
@@ -6428,15 +6989,18 @@
         <v>1.838999999999988</v>
       </c>
       <c r="J187">
+        <v>19.35499999999961</v>
+      </c>
+      <c r="K187">
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:11">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C188">
         <v>23</v>
@@ -6460,15 +7024,18 @@
         <v>2.364000000000001</v>
       </c>
       <c r="J188">
+        <v>19.79599999999993</v>
+      </c>
+      <c r="K188">
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:11">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -6492,15 +7059,18 @@
         <v>0</v>
       </c>
       <c r="J189">
+        <v>0.766</v>
+      </c>
+      <c r="K189">
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:11">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -6524,15 +7094,18 @@
         <v>1.568999999999997</v>
       </c>
       <c r="J190">
+        <v>11.58099999999999</v>
+      </c>
+      <c r="K190">
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:11">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -6556,15 +7129,18 @@
         <v>0.6989999999999998</v>
       </c>
       <c r="J191">
+        <v>15.82099999999998</v>
+      </c>
+      <c r="K191">
         <v>298</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:11">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -6588,15 +7164,18 @@
         <v>0.2689999999999988</v>
       </c>
       <c r="J192">
+        <v>1.579999999999988</v>
+      </c>
+      <c r="K192">
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:11">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C193">
         <v>4</v>
@@ -6620,15 +7199,18 @@
         <v>0.2420000000000009</v>
       </c>
       <c r="J193">
+        <v>0.3589999999999982</v>
+      </c>
+      <c r="K193">
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:11">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -6652,15 +7234,18 @@
         <v>0.08600000000000119</v>
       </c>
       <c r="J194">
+        <v>0.3049999999999882</v>
+      </c>
+      <c r="K194">
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:11">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -6684,15 +7269,18 @@
         <v>0.7300000000000009</v>
       </c>
       <c r="J195">
+        <v>7.625</v>
+      </c>
+      <c r="K195">
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:11">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C196">
         <v>7</v>
@@ -6716,15 +7304,18 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="J196">
+        <v>1.037000000000006</v>
+      </c>
+      <c r="K196">
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:11">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -6748,15 +7339,18 @@
         <v>0.2890000000000015</v>
       </c>
       <c r="J197">
+        <v>1.83300000000002</v>
+      </c>
+      <c r="K197">
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:11">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C198">
         <v>9</v>
@@ -6780,15 +7374,18 @@
         <v>0.3100000000000005</v>
       </c>
       <c r="J198">
+        <v>3.509999999999989</v>
+      </c>
+      <c r="K198">
         <v>56</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:11">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -6812,15 +7409,18 @@
         <v>0.1799999999999997</v>
       </c>
       <c r="J199">
+        <v>0.5439999999999685</v>
+      </c>
+      <c r="K199">
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C200">
         <v>11</v>
@@ -6844,15 +7444,18 @@
         <v>0.6210000000000031</v>
       </c>
       <c r="J200">
+        <v>2.732999999999991</v>
+      </c>
+      <c r="K200">
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C201">
         <v>12</v>
@@ -6876,15 +7479,18 @@
         <v>0.1489999999999991</v>
       </c>
       <c r="J201">
+        <v>1.112999999999976</v>
+      </c>
+      <c r="K201">
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C202">
         <v>13</v>
@@ -6908,15 +7514,18 @@
         <v>0.3459999999999965</v>
       </c>
       <c r="J202">
+        <v>2.981999999999985</v>
+      </c>
+      <c r="K202">
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C203">
         <v>14</v>
@@ -6940,15 +7549,18 @@
         <v>0.3599999999999897</v>
       </c>
       <c r="J203">
+        <v>4.060000000000007</v>
+      </c>
+      <c r="K203">
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C204">
         <v>15</v>
@@ -6972,15 +7584,18 @@
         <v>0.03000000000000469</v>
       </c>
       <c r="J204">
+        <v>0.2370000000000196</v>
+      </c>
+      <c r="K204">
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C205">
         <v>16</v>
@@ -7004,15 +7619,18 @@
         <v>0.3810000000000002</v>
       </c>
       <c r="J205">
+        <v>1.327000000000041</v>
+      </c>
+      <c r="K205">
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206">
         <v>17</v>
@@ -7036,15 +7654,18 @@
         <v>0.3290000000000131</v>
       </c>
       <c r="J206">
+        <v>1.876999999999994</v>
+      </c>
+      <c r="K206">
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C207">
         <v>18</v>
@@ -7068,15 +7689,18 @@
         <v>3.429</v>
       </c>
       <c r="J207">
+        <v>17.599</v>
+      </c>
+      <c r="K207">
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:11">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C208">
         <v>19</v>
@@ -7100,15 +7724,18 @@
         <v>0.3100000000000058</v>
       </c>
       <c r="J208">
+        <v>2.765000000000047</v>
+      </c>
+      <c r="K208">
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:11">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C209">
         <v>20</v>
@@ -7132,15 +7759,18 @@
         <v>0.7389999999999901</v>
       </c>
       <c r="J209">
+        <v>8.493999999999915</v>
+      </c>
+      <c r="K209">
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:11">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C210">
         <v>21</v>
@@ -7164,15 +7794,18 @@
         <v>0.9489999999999998</v>
       </c>
       <c r="J210">
+        <v>7.594999999999944</v>
+      </c>
+      <c r="K210">
         <v>94</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:11">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C211">
         <v>22</v>
@@ -7196,15 +7829,18 @@
         <v>0.1520000000000028</v>
       </c>
       <c r="J211">
+        <v>1.164000000000017</v>
+      </c>
+      <c r="K211">
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:11">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C212">
         <v>23</v>
@@ -7228,15 +7864,18 @@
         <v>1.149999999999981</v>
       </c>
       <c r="J212">
+        <v>3.529999999999863</v>
+      </c>
+      <c r="K212">
         <v>128</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:11">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C213">
         <v>24</v>
@@ -7260,15 +7899,18 @@
         <v>2.19899999999998</v>
       </c>
       <c r="J213">
+        <v>21.64499999999975</v>
+      </c>
+      <c r="K213">
         <v>297</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:11">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C214">
         <v>25</v>
@@ -7292,15 +7934,18 @@
         <v>0.1089999999999911</v>
       </c>
       <c r="J214">
+        <v>0.7470000000000105</v>
+      </c>
+      <c r="K214">
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:11">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C215">
         <v>26</v>
@@ -7324,15 +7969,18 @@
         <v>1.058000000000003</v>
       </c>
       <c r="J215">
+        <v>7.928000000000079</v>
+      </c>
+      <c r="K215">
         <v>56</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:11">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C216">
         <v>27</v>
@@ -7356,15 +8004,18 @@
         <v>0.848999999999986</v>
       </c>
       <c r="J216">
+        <v>11.53700000000006</v>
+      </c>
+      <c r="K216">
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:11">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C217">
         <v>28</v>
@@ -7388,15 +8039,18 @@
         <v>0.6090000000000053</v>
       </c>
       <c r="J217">
+        <v>4.732999999999972</v>
+      </c>
+      <c r="K217">
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:11">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -7420,15 +8074,18 @@
         <v>0</v>
       </c>
       <c r="J218">
+        <v>5.886999999999996</v>
+      </c>
+      <c r="K218">
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:11">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -7452,15 +8109,18 @@
         <v>0</v>
       </c>
       <c r="J219">
+        <v>0.6529999999999978</v>
+      </c>
+      <c r="K219">
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:11">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -7484,15 +8144,18 @@
         <v>-0.002999999999999999</v>
       </c>
       <c r="J220">
+        <v>1.242</v>
+      </c>
+      <c r="K220">
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:11">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -7516,15 +8179,18 @@
         <v>6.938893903907229E-19</v>
       </c>
       <c r="J221">
+        <v>2.116000000000001</v>
+      </c>
+      <c r="K221">
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:11">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -7548,15 +8214,18 @@
         <v>-6.938893903907229E-19</v>
       </c>
       <c r="J222">
+        <v>2.348999999999995</v>
+      </c>
+      <c r="K222">
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:11">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -7580,15 +8249,18 @@
         <v>0.3089999999999997</v>
       </c>
       <c r="J223">
+        <v>6.062999999999979</v>
+      </c>
+      <c r="K223">
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:11">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>6</v>
@@ -7612,15 +8284,18 @@
         <v>0.8739999999999996</v>
       </c>
       <c r="J224">
+        <v>9.469999999999995</v>
+      </c>
+      <c r="K224">
         <v>124</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:11">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C225">
         <v>7</v>
@@ -7644,15 +8319,18 @@
         <v>0.6390000000000016</v>
       </c>
       <c r="J225">
+        <v>6.402000000000049</v>
+      </c>
+      <c r="K225">
         <v>120</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:11">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>8</v>
@@ -7676,15 +8354,18 @@
         <v>0.3600000000000008</v>
       </c>
       <c r="J226">
+        <v>2.61399999999997</v>
+      </c>
+      <c r="K226">
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:11">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -7708,15 +8389,18 @@
         <v>3.410000000000005</v>
       </c>
       <c r="J227">
+        <v>20.41699999999996</v>
+      </c>
+      <c r="K227">
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:11">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C228">
         <v>10</v>
@@ -7740,15 +8424,18 @@
         <v>0.2690000000000117</v>
       </c>
       <c r="J228">
+        <v>1.032000000000045</v>
+      </c>
+      <c r="K228">
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:11">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C229">
         <v>11</v>
@@ -7772,15 +8459,18 @@
         <v>0.4090000000000034</v>
       </c>
       <c r="J229">
+        <v>2.588999999999975</v>
+      </c>
+      <c r="K229">
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:11">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>12</v>
@@ -7804,15 +8494,18 @@
         <v>0.01700000000000834</v>
       </c>
       <c r="J230">
+        <v>0.505000000000015</v>
+      </c>
+      <c r="K230">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:11">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C231">
         <v>13</v>
@@ -7836,15 +8529,18 @@
         <v>0.2290000000000063</v>
       </c>
       <c r="J231">
+        <v>1.820999999999955</v>
+      </c>
+      <c r="K231">
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:11">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -7868,15 +8564,18 @@
         <v>1.058999999999999</v>
       </c>
       <c r="J232">
+        <v>13.113</v>
+      </c>
+      <c r="K232">
         <v>98</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:11">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -7900,15 +8599,18 @@
         <v>0.06899999999999928</v>
       </c>
       <c r="J233">
+        <v>0.4810000000000019</v>
+      </c>
+      <c r="K233">
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:11">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C234">
         <v>2</v>
@@ -7932,15 +8634,18 @@
         <v>0.008999999999998121</v>
       </c>
       <c r="J234">
+        <v>0.2220000000000062</v>
+      </c>
+      <c r="K234">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:11">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -7964,15 +8669,18 @@
         <v>11.723</v>
       </c>
       <c r="J235">
+        <v>62.20100000000002</v>
+      </c>
+      <c r="K235">
         <v>449</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:11">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C236">
         <v>4</v>
@@ -7996,15 +8704,18 @@
         <v>0.6089999999999876</v>
       </c>
       <c r="J236">
+        <v>6.602999999999888</v>
+      </c>
+      <c r="K236">
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:11">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C237">
         <v>5</v>
@@ -8028,15 +8739,18 @@
         <v>0.06899999999999373</v>
       </c>
       <c r="J237">
+        <v>0.9780000000000566</v>
+      </c>
+      <c r="K237">
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:11">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C238">
         <v>6</v>
@@ -8060,15 +8774,18 @@
         <v>0.3889999999999905</v>
       </c>
       <c r="J238">
+        <v>1.657999999999953</v>
+      </c>
+      <c r="K238">
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:11">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C239">
         <v>7</v>
@@ -8092,15 +8809,18 @@
         <v>0.08900000000000396</v>
       </c>
       <c r="J239">
+        <v>0.5639999999999699</v>
+      </c>
+      <c r="K239">
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:11">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C240">
         <v>8</v>
@@ -8124,15 +8844,18 @@
         <v>0.2589999999999915</v>
       </c>
       <c r="J240">
+        <v>3.175999999999979</v>
+      </c>
+      <c r="K240">
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:11">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C241">
         <v>9</v>
@@ -8156,15 +8879,18 @@
         <v>0.2989999999999888</v>
       </c>
       <c r="J241">
+        <v>1.902999999999974</v>
+      </c>
+      <c r="K241">
         <v>59</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:11">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -8188,15 +8914,18 @@
         <v>1.109</v>
       </c>
       <c r="J242">
+        <v>15.91600000000001</v>
+      </c>
+      <c r="K242">
         <v>221</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:11">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -8220,15 +8949,18 @@
         <v>0.8389999999999991</v>
       </c>
       <c r="J243">
+        <v>5.532000000000011</v>
+      </c>
+      <c r="K243">
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:11">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -8252,6 +8984,9 @@
         <v>2.779000000000003</v>
       </c>
       <c r="J244">
+        <v>17.33499999999999</v>
+      </c>
+      <c r="K244">
         <v>172</v>
       </c>
     </row>
